--- a/medicine/Mort/Tout_est_parfait/Tout_est_parfait.xlsx
+++ b/medicine/Mort/Tout_est_parfait/Tout_est_parfait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout est parfait est un film québécois réalisé par Yves-Christian Fournier sorti le 15 février 2008 (Québec) et 7 janvier 2009 (France).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josh (Maxime Dumontier), un adolescent issu d'une banlieue ouvrière, découvre son meilleur ami Thomas (Maxime Bessette) sans vie; il s'est pendu. Puis Josh découvre trois autres de ses amis : l'un s'est noyé, l'autre a un projectile dans la tête et le dernier s'est immolé. Rapidement, on conclut à un pacte de suicide. Tourmenté par ces morts inexplicables, Josh trouve une oreille attentive en Mia (Chloé Bourgeois), l'ex petite amie de l'un des suicidés, et en Henri (Normand D'Amour), le père de Thomas. Une oreille attentive certes, mais également de dures relations chaotiques.
 Errant dans la ville, revisitant les recoins où il passait le temps avec ses amis, Josh a des réminiscences et des flashbacks heureux et tortueux, expliquant en partie les raisons qui ont poussé les quatre adolescents à poser l'ultime geste.
@@ -543,12 +557,14 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Premier long métrage du réalisateur Yves-Christian Fournier, un ancien de la Course destination monde[1].
-La plupart des jeunes comédiens du film sont des non-professionnels, volontairement choisis pour augmenter l'authenticité du jeu[1].
-La chanson thème « M'accrocher? » est une composition de Loco Locass[2].
-Le film fut présenté au Canada, aux États-Unis, en France, en Suisse, au Benelux et en Allemagne[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Premier long métrage du réalisateur Yves-Christian Fournier, un ancien de la Course destination monde.
+La plupart des jeunes comédiens du film sont des non-professionnels, volontairement choisis pour augmenter l'authenticité du jeu.
+La chanson thème « M'accrocher? » est une composition de Loco Locass.
+Le film fut présenté au Canada, aux États-Unis, en France, en Suisse, au Benelux et en Allemagne.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Tout est parfait
 Réalisation : Yves-Christian Fournier
@@ -615,7 +633,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> États-Unis : Grand Prix du jury à Seattle
  Italie : Prix ARCA de l’ENEL au Festival du film de Giffoni
@@ -649,7 +669,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Maxime Dumontier : Josh
 Chloé Bourgeois : Mia, l'ex de Sacha
